--- a/gráficos.xlsx
+++ b/gráficos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20 MB" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,11 +602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1509964688"/>
-        <c:axId val="1509961968"/>
+        <c:axId val="2047972784"/>
+        <c:axId val="2137966640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1509964688"/>
+        <c:axId val="2047972784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,7 +712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1509961968"/>
+        <c:crossAx val="2137966640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -719,7 +720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1509961968"/>
+        <c:axId val="2137966640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,7 +834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1509964688"/>
+        <c:crossAx val="2047972784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -985,7 +986,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.9730037471016922E-2"/>
+                  <c:x val="-3.0711505451174764E-2"/>
                   <c:y val="-5.0308907814760037E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1006,7 +1007,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.5168185793756215E-2"/>
+                  <c:x val="-2.9544760506721283E-2"/>
                   <c:y val="5.6455359085819258E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1027,8 +1028,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.5168185793756284E-2"/>
-                  <c:y val="7.7808212465935112E-2"/>
+                  <c:x val="-2.9544760506721317E-2"/>
+                  <c:y val="6.2556174337280931E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1048,7 +1049,7 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.9341143626216196E-2"/>
+                  <c:x val="-3.0057229012461949E-2"/>
                   <c:y val="-5.0308907814760093E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1069,7 +1070,7 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.9341143626216196E-2"/>
+                  <c:x val="-2.822698434910231E-2"/>
                   <c:y val="5.6455359085819147E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1090,8 +1091,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.5168185793756284E-2"/>
-                  <c:y val="-5.6409723066221822E-2"/>
+                  <c:x val="-2.9544760506721248E-2"/>
+                  <c:y val="-4.7258500189029308E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1111,8 +1112,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.9341143626216196E-2"/>
-                  <c:y val="5.3404951460088418E-2"/>
+                  <c:x val="-3.0057229012462081E-2"/>
+                  <c:y val="4.1203320957165071E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1132,7 +1133,7 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.9341143626216328E-2"/>
+                  <c:x val="-3.0057229012462081E-2"/>
                   <c:y val="-4.7258500189029197E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1153,8 +1154,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.116541045110068E-2"/>
-                  <c:y val="5.3404951460088307E-2"/>
+                  <c:x val="-3.0316633767898882E-2"/>
+                  <c:y val="4.4253728582895911E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1209,7 +1210,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1268,7 +1268,7 @@
             <c:numRef>
               <c:f>'20 MB'!$P$7:$P$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1389,11 +1389,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1640270400"/>
-        <c:axId val="1640269312"/>
+        <c:axId val="2137969360"/>
+        <c:axId val="2137976432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1640270400"/>
+        <c:axId val="2137969360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1640269312"/>
+        <c:crossAx val="2137976432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1640269312"/>
+        <c:axId val="2137976432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,7 +1590,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1621,7 +1621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1640270400"/>
+        <c:crossAx val="2137969360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1764,6 +1764,233 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2544323730660245E-2"/>
+                  <c:y val="-0.17284557254632629"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2544323730660286E-2"/>
+                  <c:y val="-9.4112164244197147E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2544323730660245E-2"/>
+                  <c:y val="-8.7265780913577076E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2544323730660245E-2"/>
+                  <c:y val="-6.3303439256407301E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7861397280066525E-2"/>
+                  <c:y val="-5.9880247591097328E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2544323730660245E-2"/>
+                  <c:y val="-6.6726630921717267E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2544323730660245E-2"/>
+                  <c:y val="-5.303386426047739E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0234924222661864E-2"/>
+                  <c:y val="-5.303386426047739E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'76 MB'!$B$9:$B$17</c:f>
@@ -1937,11 +2164,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1735355584"/>
-        <c:axId val="1735363744"/>
+        <c:axId val="2137968272"/>
+        <c:axId val="2137961200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1735355584"/>
+        <c:axId val="2137968272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,7 +2274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1735363744"/>
+        <c:crossAx val="2137961200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2055,7 +2282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1735363744"/>
+        <c:axId val="2137961200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,7 +2394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1735355584"/>
+        <c:crossAx val="2137968272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2307,6 +2534,233 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.561811023622047E-2"/>
+                  <c:y val="-9.0243146689997084E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5729221347331581E-2"/>
+                  <c:y val="7.1793890347039868E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5729221347331532E-2"/>
+                  <c:y val="-7.1724628171478566E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5729221347331581E-2"/>
+                  <c:y val="-7.1724628171478566E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5729221347331581E-2"/>
+                  <c:y val="-7.1724628171478608E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5729221347331581E-2"/>
+                  <c:y val="-6.709499854184893E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5729221347331581E-2"/>
+                  <c:y val="-6.7094998541849027E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5729221347331581E-2"/>
+                  <c:y val="-6.709499854184893E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'76 MB'!$B$9:$B$17</c:f>
@@ -2347,7 +2801,7 @@
             <c:numRef>
               <c:f>'76 MB'!$P$9:$P$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2465,11 +2919,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1735353952"/>
-        <c:axId val="1735363200"/>
+        <c:axId val="2137973168"/>
+        <c:axId val="2137970448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1735353952"/>
+        <c:axId val="2137973168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +3029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1735363200"/>
+        <c:crossAx val="2137970448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2583,7 +3037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1735363200"/>
+        <c:axId val="2137970448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +3125,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2702,7 +3156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1735353952"/>
+        <c:crossAx val="2137973168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4998,15 +5452,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
+      <xdr:colOff>319086</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>406399</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5347,8 +5801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5447,7 +5901,7 @@
         <f>L7</f>
         <v>0.83419500000000002</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7">
@@ -5485,7 +5939,7 @@
         <f>$N$7/B8</f>
         <v>0.41709750000000001</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <f t="shared" ref="P8:P15" si="2">$L$7/L8</f>
         <v>1.905359569681258</v>
       </c>
@@ -5525,12 +5979,12 @@
         <f t="shared" ref="N9:N15" si="3">$N$7/B9</f>
         <v>0.20854875</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="2">
         <f t="shared" si="2"/>
         <v>3.3630114896190286</v>
       </c>
       <c r="Q9">
-        <f t="shared" ref="Q9:Q15" si="4">$Q$7*B9</f>
+        <f t="shared" ref="Q9:Q10" si="4">$Q$7*B9</f>
         <v>4</v>
       </c>
     </row>
@@ -5565,7 +6019,7 @@
         <f t="shared" si="3"/>
         <v>0.104274375</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="2">
         <f t="shared" si="2"/>
         <v>3.7503540423771868</v>
       </c>
@@ -5605,7 +6059,7 @@
         <f t="shared" si="3"/>
         <v>5.2137187500000001E-2</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="2">
         <f t="shared" si="2"/>
         <v>3.3569890742268456</v>
       </c>
@@ -5641,7 +6095,7 @@
         <f t="shared" si="3"/>
         <v>3.4758125000000001E-2</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="2">
         <f t="shared" si="2"/>
         <v>3.2304966598896314</v>
       </c>
@@ -5677,7 +6131,7 @@
         <f t="shared" si="3"/>
         <v>2.6068593750000001E-2</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="2">
         <f t="shared" si="2"/>
         <v>2.662471753756591</v>
       </c>
@@ -5713,7 +6167,7 @@
         <f t="shared" si="3"/>
         <v>2.0854875000000002E-2</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="2">
         <f t="shared" si="2"/>
         <v>2.5706454078173726</v>
       </c>
@@ -5749,7 +6203,7 @@
         <f t="shared" si="3"/>
         <v>1.73790625E-2</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="2">
         <f t="shared" si="2"/>
         <v>2.2323122579885522</v>
       </c>
@@ -5764,8 +6218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5861,7 +6315,7 @@
         <f>L9</f>
         <v>3.4967030000000001</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9">
@@ -5899,7 +6353,7 @@
         <f>$N$9/B10</f>
         <v>1.7483515000000001</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="2">
         <f>$L$9/L10</f>
         <v>1.9240393842551018</v>
       </c>
@@ -5939,12 +6393,12 @@
         <f t="shared" ref="N11:N17" si="2">$N$9/B11</f>
         <v>0.87417575000000003</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="2">
         <f t="shared" ref="P11:P17" si="3">$L$9/L11</f>
         <v>3.1895755780171511</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11:Q17" si="4">$Q$9*B11</f>
+        <f t="shared" ref="Q11:Q12" si="4">$Q$9*B11</f>
         <v>4</v>
       </c>
     </row>
@@ -5979,7 +6433,7 @@
         <f t="shared" si="2"/>
         <v>0.43708787500000001</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="2">
         <f t="shared" si="3"/>
         <v>4.629450945761846</v>
       </c>
@@ -6019,7 +6473,7 @@
         <f t="shared" si="2"/>
         <v>0.21854393750000001</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="2">
         <f t="shared" si="3"/>
         <v>4.3255042108284103</v>
       </c>
@@ -6055,7 +6509,7 @@
         <f t="shared" si="2"/>
         <v>0.14569595833333335</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="2">
         <f t="shared" si="3"/>
         <v>4.4757225507513505</v>
       </c>
@@ -6091,7 +6545,7 @@
         <f t="shared" si="2"/>
         <v>0.10927196875</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="2">
         <f t="shared" si="3"/>
         <v>4.2118498300421825</v>
       </c>
@@ -6127,7 +6581,7 @@
         <f t="shared" si="2"/>
         <v>8.7417574999999997E-2</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="2">
         <f t="shared" si="3"/>
         <v>3.6692725576592737</v>
       </c>
@@ -6163,13 +6617,14 @@
         <f t="shared" si="2"/>
         <v>7.2847979166666674E-2</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="2">
         <f t="shared" si="3"/>
         <v>3.338214586095924</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/gráficos.xlsx
+++ b/gráficos.xlsx
@@ -7,15 +7,18 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="20 MB" sheetId="1" r:id="rId1"/>
-    <sheet name="76 MB" sheetId="2" r:id="rId2"/>
+    <sheet name="20 Kb" sheetId="5" r:id="rId1"/>
+    <sheet name="190 Kb" sheetId="6" r:id="rId2"/>
+    <sheet name="20 MB" sheetId="1" r:id="rId3"/>
+    <sheet name="76 MB" sheetId="2" r:id="rId4"/>
+    <sheet name="comparação" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
     <t>Time</t>
   </si>
@@ -54,6 +57,45 @@
   </si>
   <si>
     <t>20,000,000</t>
+  </si>
+  <si>
+    <t>rep</t>
+  </si>
+  <si>
+    <t>20Kb</t>
+  </si>
+  <si>
+    <t>200KB</t>
+  </si>
+  <si>
+    <t>20MB</t>
+  </si>
+  <si>
+    <t>76MB</t>
+  </si>
+  <si>
+    <t>190 KB</t>
+  </si>
+  <si>
+    <t>20 Kb</t>
+  </si>
+  <si>
+    <t>20 MB</t>
+  </si>
+  <si>
+    <t>76 MB</t>
+  </si>
+  <si>
+    <t>195.312</t>
+  </si>
+  <si>
+    <t>KBytes</t>
+  </si>
+  <si>
+    <t>19.531</t>
+  </si>
+  <si>
+    <t>Kb</t>
   </si>
 </sst>
 </file>
@@ -104,10 +146,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,11 +655,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2047972784"/>
-        <c:axId val="2137966640"/>
+        <c:axId val="-515041648"/>
+        <c:axId val="-515041104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2047972784"/>
+        <c:axId val="-515041648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -712,7 +765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137966640"/>
+        <c:crossAx val="-515041104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -720,7 +773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137966640"/>
+        <c:axId val="-515041104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,7 +887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2047972784"/>
+        <c:crossAx val="-515041648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1389,11 +1442,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2137969360"/>
-        <c:axId val="2137976432"/>
+        <c:axId val="-515051984"/>
+        <c:axId val="-515051440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2137969360"/>
+        <c:axId val="-515051984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137976432"/>
+        <c:crossAx val="-515051440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137976432"/>
+        <c:axId val="-515051440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,7 +1674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137969360"/>
+        <c:crossAx val="-515051984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1710,7 +1763,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1781,9 +1833,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1802,9 +1852,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1823,9 +1871,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1844,9 +1890,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1865,9 +1909,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1886,9 +1928,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1907,9 +1947,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1928,9 +1966,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1972,7 +2008,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2164,11 +2199,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2137968272"/>
-        <c:axId val="2137961200"/>
+        <c:axId val="-534244912"/>
+        <c:axId val="-335961168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2137968272"/>
+        <c:axId val="-534244912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,7 +2309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137961200"/>
+        <c:crossAx val="-335961168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2282,7 +2317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137961200"/>
+        <c:axId val="-335961168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,7 +2368,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2394,7 +2428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137968272"/>
+        <c:crossAx val="-534244912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2483,7 +2517,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2551,9 +2584,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2572,9 +2603,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2593,9 +2622,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2614,9 +2641,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2635,9 +2660,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2656,9 +2679,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2677,9 +2698,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2698,9 +2717,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2742,7 +2759,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2919,11 +2935,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2137973168"/>
-        <c:axId val="2137970448"/>
+        <c:axId val="-335966064"/>
+        <c:axId val="-335976400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2137973168"/>
+        <c:axId val="-335966064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3029,7 +3045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137970448"/>
+        <c:crossAx val="-335976400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3037,7 +3053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137970448"/>
+        <c:axId val="-335976400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3156,7 +3172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137973168"/>
+        <c:crossAx val="-335966064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3168,6 +3184,369 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparação!$C$34:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20Kb</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20MB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparação!$L$34:$L$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.4790000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4969E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22243099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75531700000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparação!$C$34:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20Kb</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20MB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparação!$O$34:$O$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7169999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2249999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24804999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0962909999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-335974768"/>
+        <c:axId val="-335975312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-335974768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-335975312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-335975312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-335974768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3331,6 +3710,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4867,6 +5286,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5504,6 +6439,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5799,411 +6769,1075 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q15"/>
+  <dimension ref="B4:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AB36" sqref="AB36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.7049999999999999E-3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="2">
+        <f>AVERAGE(E9:I9)</f>
+        <v>1.7049999999999999E-3</v>
+      </c>
+      <c r="L9" s="2">
+        <f>MIN(E9:I9)</f>
+        <v>1.7049999999999999E-3</v>
+      </c>
+      <c r="N9" s="2">
+        <f>L9</f>
+        <v>1.7049999999999999E-3</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="2" t="e">
+        <f t="shared" ref="K10:K17" si="0">AVERAGE(E10:I10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10:L16" si="1">MIN(E10:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <f>$N$7/B10</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="5" t="e">
+        <f>$L$9/L10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.5430000000000002E-3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3.7169999999999998E-3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4.3400000000000001E-3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4.4879999999999998E-3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6.496E-3</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1168000000000003E-3</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7169999999999998E-3</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" ref="N11:N17" si="2">$N$7/B11</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" ref="P11:P17" si="3">$L$9/L11</f>
+        <v>0.45870325531342482</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8.4790000000000004E-3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9.8740000000000008E-3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.0241E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.0351000000000001E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.3764999999999999E-2</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0541999999999999E-2</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>8.4790000000000004E-3</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.20108503361245428</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="K15" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="2">
+        <f>MIN(E17:I17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.1985000000000001E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7.9050000000000006E-3</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="2">
+        <f>AVERAGE(E9:I9)</f>
+        <v>9.9450000000000007E-3</v>
+      </c>
+      <c r="L9" s="2">
+        <f>MIN(E9:I9)</f>
+        <v>7.9050000000000006E-3</v>
+      </c>
+      <c r="N9" s="2">
+        <f>L9</f>
+        <v>7.9050000000000006E-3</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="2" t="e">
+        <f t="shared" ref="K10:K17" si="0">AVERAGE(E10:I10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10:L16" si="1">MIN(E10:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <f>$N$7/B10</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="5" t="e">
+        <f>$L$9/L10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8.2810000000000002E-3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9.6970000000000008E-3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8.2109999999999995E-3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7.2989999999999999E-3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7.2249999999999997E-3</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>8.1426000000000016E-3</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>7.2249999999999997E-3</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" ref="N11:N17" si="2">$N$7/B11</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <f>$L$9/L11</f>
+        <v>1.0941176470588236</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.4969E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.5370999999999999E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.686E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.7174999999999999E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.8141000000000001E-2</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6503200000000003E-2</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4969E-2</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" ref="P12:P17" si="3">$L$9/L12</f>
+        <v>0.52809138887033202</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="K14" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="K15" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="2">
+        <f>MIN(E17:I17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>19.073</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>5</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>0.85342499999999999</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>0.83419500000000002</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>0.840804</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>0.85930300000000004</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>0.84702299999999997</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <f>AVERAGE(E7:I7)</f>
         <v>0.84694999999999998</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <f>MIN(E7:I7)</f>
         <v>0.83419500000000002</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <f>L7</f>
         <v>0.83419500000000002</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="5">
         <v>1</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>0.442741</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>0.444295</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>0.43781500000000001</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>0.44293100000000002</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <v>0.440058</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <f t="shared" ref="K8:K15" si="0">AVERAGE(E8:I8)</f>
         <v>0.44156800000000002</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <f t="shared" ref="L8:L14" si="1">MIN(E8:I8)</f>
         <v>0.43781500000000001</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <f>$N$7/B8</f>
         <v>0.41709750000000001</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="5">
         <f t="shared" ref="P8:P15" si="2">$L$7/L8</f>
         <v>1.905359569681258</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="2">
         <f>$Q$7*B8</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>0.25273200000000001</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>0.24804999999999999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>0.27013199999999998</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>0.25151499999999999</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <v>0.26360899999999998</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <f t="shared" si="0"/>
         <v>0.25720759999999998</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <f t="shared" si="1"/>
         <v>0.24804999999999999</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <f t="shared" ref="N9:N15" si="3">$N$7/B9</f>
         <v>0.20854875</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="5">
         <f t="shared" si="2"/>
         <v>3.3630114896190286</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <f t="shared" ref="Q9:Q10" si="4">$Q$7*B9</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>0.232264</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>0.22955800000000001</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>0.22243099999999999</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <v>0.24835299999999999</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <v>0.26863300000000001</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <f t="shared" si="0"/>
         <v>0.24024780000000004</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <f t="shared" si="1"/>
         <v>0.22243099999999999</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <f t="shared" si="3"/>
         <v>0.104274375</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="5">
         <f t="shared" si="2"/>
         <v>3.7503540423771868</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="B11" s="2">
         <v>16</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>0.24849499999999999</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>0.26306600000000002</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <v>0.26949200000000001</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="3">
         <v>0.28389500000000001</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>0.26122000000000001</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <f t="shared" si="0"/>
         <v>0.26523360000000001</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <f t="shared" si="1"/>
         <v>0.24849499999999999</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <f t="shared" si="3"/>
         <v>5.2137187500000001E-2</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="5">
         <f t="shared" si="2"/>
         <v>3.3569890742268456</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B12" s="2">
         <v>24</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>0.28842699999999999</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>0.25822499999999998</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
         <v>0.26693600000000001</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <v>0.29179899999999998</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <v>0.26194000000000001</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <f t="shared" si="0"/>
         <v>0.27346539999999997</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <f t="shared" si="1"/>
         <v>0.25822499999999998</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <f t="shared" si="3"/>
         <v>3.4758125000000001E-2</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="5">
         <f t="shared" si="2"/>
         <v>3.2304966598896314</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="B13" s="2">
         <v>32</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>0.34729300000000002</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>0.32923000000000002</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>0.31908599999999998</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <v>0.31898500000000002</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>0.31331599999999998</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <f t="shared" si="0"/>
         <v>0.32558199999999998</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <f t="shared" si="1"/>
         <v>0.31331599999999998</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <f t="shared" si="3"/>
         <v>2.6068593750000001E-2</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="5">
         <f t="shared" si="2"/>
         <v>2.662471753756591</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="B14" s="2">
         <v>40</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>0.43299500000000002</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>0.37698199999999998</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <v>0.40404299999999999</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <v>0.32450800000000002</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>0.36399199999999998</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <f t="shared" si="0"/>
         <v>0.38050400000000001</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <f t="shared" si="1"/>
         <v>0.32450800000000002</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <f t="shared" si="3"/>
         <v>2.0854875000000002E-2</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="5">
         <f t="shared" si="2"/>
         <v>2.5706454078173726</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="B15" s="2">
         <v>48</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>0.44735900000000001</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>0.442965</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <v>0.47686600000000001</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <v>0.373691</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <v>0.52825</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <f t="shared" si="0"/>
         <v>0.45382619999999996</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <f>MIN(E15:I15)</f>
         <v>0.373691</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <f t="shared" si="3"/>
         <v>1.73790625E-2</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="5">
         <f t="shared" si="2"/>
         <v>2.2323122579885522</v>
       </c>
@@ -6214,410 +7848,413 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>76.293999999999997</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>4</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>3.507638</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>3.4967030000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>3.5412789999999998</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>3.5178400000000001</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <v>3.5101749999999998</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <f>AVERAGE(E9:I9)</f>
         <v>3.5147269999999997</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <f>MIN(E9:I9)</f>
         <v>3.4967030000000001</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <f>L9</f>
         <v>3.4967030000000001</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="5">
         <v>1</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>1.8412269999999999</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>1.818681</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>1.848957</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <v>1.8173760000000001</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <v>1.8281849999999999</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <f t="shared" ref="K10:K17" si="0">AVERAGE(E10:I10)</f>
         <v>1.8308852000000002</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <f t="shared" ref="L10:L16" si="1">MIN(E10:I10)</f>
         <v>1.8173760000000001</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <f>$N$9/B10</f>
         <v>1.7483515000000001</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="5">
         <f>$L$9/L10</f>
         <v>1.9240393842551018</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="2">
         <f>$Q$9*B10</f>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>1.1210830000000001</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>1.1004813</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <v>1.1279140000000001</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="3">
         <v>1.1460170000000001</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>1.0962909999999999</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <f t="shared" si="0"/>
         <v>1.11835726</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <f t="shared" si="1"/>
         <v>1.0962909999999999</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <f t="shared" ref="N11:N17" si="2">$N$9/B11</f>
         <v>0.87417575000000003</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="5">
         <f t="shared" ref="P11:P17" si="3">$L$9/L11</f>
         <v>3.1895755780171511</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="2">
         <f t="shared" ref="Q11:Q12" si="4">$Q$9*B11</f>
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>0.83651200000000003</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>0.86646199999999995</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
         <v>0.75531700000000002</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <v>0.95313599999999998</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <v>0.87135099999999999</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <f t="shared" si="0"/>
         <v>0.85655559999999986</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <f t="shared" si="1"/>
         <v>0.75531700000000002</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <f t="shared" si="2"/>
         <v>0.43708787500000001</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="5">
         <f t="shared" si="3"/>
         <v>4.629450945761846</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="B13" s="2">
         <v>16</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>0.863008</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>0.92658300000000005</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>0.808392</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <v>0.86082099999999995</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>0.89337299999999997</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <f t="shared" si="0"/>
         <v>0.87043540000000008</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <f t="shared" si="1"/>
         <v>0.808392</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <f t="shared" si="2"/>
         <v>0.21854393750000001</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="5">
         <f t="shared" si="3"/>
         <v>4.3255042108284103</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="B14" s="2">
         <v>24</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>0.85499000000000003</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>0.78125999999999995</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <v>0.90306799999999998</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <v>0.81550900000000004</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>0.87588699999999997</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <f t="shared" si="0"/>
         <v>0.84614279999999997</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <f t="shared" si="1"/>
         <v>0.78125999999999995</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <f t="shared" si="2"/>
         <v>0.14569595833333335</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="5">
         <f t="shared" si="3"/>
         <v>4.4757225507513505</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="B15" s="2">
         <v>32</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>0.89712400000000003</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>0.86317100000000002</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <v>0.93327300000000002</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <v>0.830206</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <v>0.91501449999999995</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <f t="shared" si="0"/>
         <v>0.88775770000000009</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <f t="shared" si="1"/>
         <v>0.830206</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <f t="shared" si="2"/>
         <v>0.10927196875</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="5">
         <f t="shared" si="3"/>
         <v>4.2118498300421825</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="B16" s="2">
         <v>40</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>0.95296899999999996</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>1.074813</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <v>1.0016238</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="3">
         <v>0.96748800000000001</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <v>1.0645100000000001</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <f t="shared" si="0"/>
         <v>1.0122807599999999</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <f t="shared" si="1"/>
         <v>0.95296899999999996</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="2">
         <f t="shared" si="2"/>
         <v>8.7417574999999997E-2</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="5">
         <f t="shared" si="3"/>
         <v>3.6692725576592737</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="B17" s="2">
         <v>48</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>1.191203</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>1.099693</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <v>1.1019509999999999</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <v>1.047477</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>1.0825629999999999</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <f t="shared" si="0"/>
         <v>1.1045773999999997</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <f>MIN(E17:I17)</f>
         <v>1.047477</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="2">
         <f t="shared" si="2"/>
         <v>7.2847979166666674E-2</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="5">
         <f t="shared" si="3"/>
         <v>3.338214586095924</v>
       </c>
@@ -6627,4 +8264,509 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.7049999999999999E-3</v>
+      </c>
+      <c r="K8" s="2">
+        <f>AVERAGE(E8:I8)</f>
+        <v>1.7049999999999999E-3</v>
+      </c>
+      <c r="L8" s="2">
+        <f>MIN(E8:I8)</f>
+        <v>1.7049999999999999E-3</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.1985000000000001E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7.9050000000000006E-3</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" ref="K9" si="0">AVERAGE(E9:I9)</f>
+        <v>9.9450000000000007E-3</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" ref="L9:L11" si="1">MIN(E9:I9)</f>
+        <v>7.9050000000000006E-3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.85342499999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.83419500000000002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.840804</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.85930300000000004</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.84702299999999997</v>
+      </c>
+      <c r="K10" s="2">
+        <f>AVERAGE(E10:I10)</f>
+        <v>0.84694999999999998</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83419500000000002</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.507638</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.4967030000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.5412789999999998</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.5178400000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3.5101749999999998</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" ref="K11" si="2">AVERAGE(E11:I11)</f>
+        <v>3.5147269999999997</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4967030000000001</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6.5430000000000002E-3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3.7169999999999998E-3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4.3400000000000001E-3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4.4879999999999998E-3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>6.496E-3</v>
+      </c>
+      <c r="K20" s="2">
+        <f>AVERAGE(E20:I20)</f>
+        <v>5.1168000000000003E-3</v>
+      </c>
+      <c r="L20" s="2">
+        <f>MIN(E20:I20)</f>
+        <v>3.7169999999999998E-3</v>
+      </c>
+      <c r="N20" s="2">
+        <f>L8/L20</f>
+        <v>0.45870325531342482</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8.2810000000000002E-3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>9.6970000000000008E-3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>8.2109999999999995E-3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>7.2989999999999999E-3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>7.2249999999999997E-3</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" ref="K21:K23" si="3">AVERAGE(E21:I21)</f>
+        <v>8.1426000000000016E-3</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" ref="L21:L23" si="4">MIN(E21:I21)</f>
+        <v>7.2249999999999997E-3</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" ref="N21:N23" si="5">L9/L21</f>
+        <v>1.0941176470588236</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.25273200000000001</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.24804999999999999</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.27013199999999998</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.25151499999999999</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.26360899999999998</v>
+      </c>
+      <c r="K22" s="2">
+        <f>AVERAGE(E22:I22)</f>
+        <v>0.25720759999999998</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24804999999999999</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="5"/>
+        <v>3.3630114896190286</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.1210830000000001</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.1004813</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.1279140000000001</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1.1460170000000001</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1.0962909999999999</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="3"/>
+        <v>1.11835726</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0962909999999999</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="5"/>
+        <v>3.1895755780171511</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2">
+        <v>4</v>
+      </c>
+      <c r="I31" s="2">
+        <v>5</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2">
+        <v>8.4790000000000004E-3</v>
+      </c>
+      <c r="F34" s="2">
+        <v>9.8740000000000008E-3</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1.0241E-2</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1.0351000000000001E-2</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1.3764999999999999E-2</v>
+      </c>
+      <c r="K34" s="2">
+        <f>AVERAGE(E34:I34)</f>
+        <v>1.0541999999999999E-2</v>
+      </c>
+      <c r="L34" s="2">
+        <f>MIN(E34:I34)</f>
+        <v>8.4790000000000004E-3</v>
+      </c>
+      <c r="O34" s="2">
+        <v>3.7169999999999998E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1.4969E-2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1.5370999999999999E-2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1.686E-2</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1.7174999999999999E-2</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1.8141000000000001E-2</v>
+      </c>
+      <c r="K35" s="2">
+        <f>AVERAGE(E35:I35)</f>
+        <v>1.6503200000000003E-2</v>
+      </c>
+      <c r="L35" s="2">
+        <f>MIN(E35:I35)</f>
+        <v>1.4969E-2</v>
+      </c>
+      <c r="O35" s="2">
+        <v>7.2249999999999997E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.232264</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.22955800000000001</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.22243099999999999</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.24835299999999999</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.26863300000000001</v>
+      </c>
+      <c r="K36" s="2">
+        <f>AVERAGE(E36:I36)</f>
+        <v>0.24024780000000004</v>
+      </c>
+      <c r="L36" s="2">
+        <f>MIN(E36:I36)</f>
+        <v>0.22243099999999999</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.24804999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.83651200000000003</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.86646199999999995</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.75531700000000002</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.95313599999999998</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.87135099999999999</v>
+      </c>
+      <c r="K37" s="2">
+        <f>AVERAGE(E37:I37)</f>
+        <v>0.85655559999999986</v>
+      </c>
+      <c r="L37" s="2">
+        <f>MIN(E37:I37)</f>
+        <v>0.75531700000000002</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1.0962909999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/gráficos.xlsx
+++ b/gráficos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="20 Kb" sheetId="5" r:id="rId1"/>
@@ -251,7 +251,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -294,9 +294,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -314,9 +312,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -334,9 +330,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -354,9 +348,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -374,9 +366,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -394,9 +384,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -414,9 +402,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -434,9 +420,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -454,9 +438,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -485,7 +467,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -655,11 +637,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-515041648"/>
-        <c:axId val="-515041104"/>
+        <c:axId val="-1088358608"/>
+        <c:axId val="-1088358064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-515041648"/>
+        <c:axId val="-1088358608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,7 +706,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -762,10 +744,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-515041104"/>
+        <c:crossAx val="-1088358064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -773,7 +755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-515041104"/>
+        <c:axId val="-1088358064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +834,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -884,10 +866,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-515041648"/>
+        <c:crossAx val="-1088358608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -925,7 +907,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -980,7 +962,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1006,7 +987,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1051,9 +1032,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1072,9 +1051,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1093,9 +1070,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1114,9 +1089,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1135,9 +1108,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1156,9 +1127,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1177,9 +1146,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1198,9 +1165,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1219,9 +1184,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1250,7 +1213,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1442,11 +1405,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-515051984"/>
-        <c:axId val="-515051440"/>
+        <c:axId val="-1088365136"/>
+        <c:axId val="-1088354256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-515051984"/>
+        <c:axId val="-1088365136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1511,7 +1474,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1549,10 +1512,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-515051440"/>
+        <c:crossAx val="-1088354256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1560,7 +1523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-515051440"/>
+        <c:axId val="-1088354256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,7 +1602,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1671,10 +1634,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-515051984"/>
+        <c:crossAx val="-1088365136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1712,7 +1675,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1788,7 +1751,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1995,7 +1958,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2199,11 +2162,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-534244912"/>
-        <c:axId val="-335961168"/>
+        <c:axId val="-1088366224"/>
+        <c:axId val="-1088355888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-534244912"/>
+        <c:axId val="-1088366224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2231,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2306,10 +2269,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-335961168"/>
+        <c:crossAx val="-1088355888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2317,7 +2280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-335961168"/>
+        <c:axId val="-1088355888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2393,7 +2356,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2425,10 +2388,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-534244912"/>
+        <c:crossAx val="-1088366224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2466,7 +2429,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2542,7 +2505,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2746,7 +2709,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2935,11 +2898,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-335966064"/>
-        <c:axId val="-335976400"/>
+        <c:axId val="-1088364592"/>
+        <c:axId val="-1088359696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-335966064"/>
+        <c:axId val="-1088364592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +2967,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3042,10 +3005,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-335976400"/>
+        <c:crossAx val="-1088359696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3053,7 +3016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-335976400"/>
+        <c:axId val="-1088359696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,7 +3100,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3169,10 +3132,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-335966064"/>
+        <c:crossAx val="-1088364592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3210,7 +3173,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3236,7 +3199,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3262,7 +3224,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3397,11 +3359,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-335974768"/>
-        <c:axId val="-335975312"/>
+        <c:axId val="-1088368944"/>
+        <c:axId val="-1088362960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-335974768"/>
+        <c:axId val="-1088368944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3441,10 +3403,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-335975312"/>
+        <c:crossAx val="-1088362960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3452,7 +3414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-335975312"/>
+        <c:axId val="-1088362960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3500,10 +3462,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-335974768"/>
+        <c:crossAx val="-1088368944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3517,7 +3479,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3543,7 +3504,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3573,7 +3534,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6771,7 +6732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
@@ -7101,8 +7062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7177,20 +7138,26 @@
       <c r="F9" s="2">
         <v>7.9050000000000006E-3</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="3">
+        <v>8.3960000000000007E-3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7.8969999999999995E-3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8.2179999999999996E-3</v>
+      </c>
       <c r="K9" s="2">
         <f>AVERAGE(E9:I9)</f>
-        <v>9.9450000000000007E-3</v>
+        <v>8.8801999999999996E-3</v>
       </c>
       <c r="L9" s="2">
         <f>MIN(E9:I9)</f>
-        <v>7.9050000000000006E-3</v>
+        <v>7.8969999999999995E-3</v>
       </c>
       <c r="N9" s="2">
         <f>L9</f>
-        <v>7.9050000000000006E-3</v>
+        <v>7.8969999999999995E-3</v>
       </c>
       <c r="P9" s="5">
         <v>1</v>
@@ -7200,26 +7167,36 @@
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="K10" s="2" t="e">
+      <c r="E10" s="3">
+        <v>7.2420000000000002E-3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8.6700000000000006E-3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6.9740000000000002E-3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6.3330000000000001E-3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6.1029999999999999E-3</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" ref="K10:K17" si="0">AVERAGE(E10:I10)</f>
-        <v>#DIV/0!</v>
+        <v>7.0644000000000002E-3</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" ref="L10:L16" si="1">MIN(E10:I10)</f>
-        <v>0</v>
+        <v>6.1029999999999999E-3</v>
       </c>
       <c r="N10" s="2">
         <f>$N$7/B10</f>
         <v>0</v>
       </c>
-      <c r="P10" s="5" t="e">
+      <c r="P10" s="5">
         <f>$L$9/L10</f>
-        <v>#DIV/0!</v>
+        <v>1.2939537932164509</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -7255,7 +7232,7 @@
       </c>
       <c r="P11" s="5">
         <f>$L$9/L11</f>
-        <v>1.0941176470588236</v>
+        <v>1.0930103806228373</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -7291,137 +7268,187 @@
       </c>
       <c r="P12" s="5">
         <f t="shared" ref="P12:P17" si="3">$L$9/L12</f>
-        <v>0.52809138887033202</v>
+        <v>0.52755695103213307</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>16</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="K13" s="2" t="e">
+      <c r="E13" s="3">
+        <v>3.3753999999999999E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3.7819999999999999E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3.0037000000000001E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.4401000000000001E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3.7272E-2</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>3.4656800000000001E-2</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.0037000000000001E-2</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P13" s="5" t="e">
+      <c r="P13" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.26290907880280984</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>24</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="K14" s="2" t="e">
+      <c r="E14" s="3">
+        <v>5.6960999999999998E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5.1130000000000002E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5.1457000000000003E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5.0856999999999999E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5.0502999999999999E-2</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>5.2181600000000009E-2</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0502999999999999E-2</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14" s="5" t="e">
+      <c r="P14" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.156366948498109</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>32</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="K15" s="2" t="e">
+      <c r="E15" s="3">
+        <v>8.1434999999999994E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6.5946000000000005E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6.2754000000000004E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.003E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>7.6974000000000001E-2</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>6.9427799999999998E-2</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.003E-2</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P15" s="5" t="e">
+      <c r="P15" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.13155089122105612</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>40</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="K16" s="2" t="e">
+      <c r="E16" s="3">
+        <v>0.101109</v>
+      </c>
+      <c r="F16" s="3">
+        <v>8.9287000000000005E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>8.5690000000000002E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>8.7965000000000002E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>9.9079E-2</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.2626000000000014E-2</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5690000000000002E-2</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P16" s="5" t="e">
+      <c r="P16" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>9.2157778037110505E-2</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>48</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="K17" s="2" t="e">
+      <c r="E17" s="3">
+        <v>7.2318999999999994E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6.9727999999999998E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6.3090999999999994E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.4704999999999999E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7.5727000000000003E-2</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>6.9113999999999995E-2</v>
       </c>
       <c r="L17" s="2">
         <f>MIN(E17:I17)</f>
-        <v>0</v>
+        <v>6.3090999999999994E-2</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="5" t="e">
+      <c r="P17" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.12516840753831768</v>
       </c>
     </row>
   </sheetData>

--- a/gráficos.xlsx
+++ b/gráficos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20 Kb" sheetId="5" r:id="rId1"/>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -159,6 +159,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -179,6 +182,1414 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tempo de execução</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4358603017130185E-2"/>
+                  <c:y val="-5.486504656927195E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4358603017130198E-2"/>
+                  <c:y val="-5.8406436071087676E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4358603017130212E-2"/>
+                  <c:y val="-5.8406436071087676E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4358603017130254E-2"/>
+                  <c:y val="-6.5489215074719137E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6483436836721412E-2"/>
+                  <c:y val="-8.3196162583797847E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4358603017130254E-2"/>
+                  <c:y val="-5.8406436071087676E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.9513981908462318E-2"/>
+                  <c:y val="-8.319616258379782E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1638815728053393E-2"/>
+                  <c:y val="-6.5489215074719137E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.132540441276134E-2"/>
+                  <c:y val="-0.10798588909650794"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'190 Kb'!$B$9:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'190 Kb'!$L$9:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.8969999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1029999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2249999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4969E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0037000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0502999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5690000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3090999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1594091984"/>
+        <c:axId val="-1594095248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1594091984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50258610679916704"/>
+              <c:y val="0.9213633066873983"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1594095248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1594095248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0624169097956177E-2"/>
+              <c:y val="0.40453599013764846"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1594091984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed Up</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9138230357596837E-2"/>
+                  <c:y val="-6.1386893583883287E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9138230357596809E-2"/>
+                  <c:y val="-6.9311607553188409E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9138230357596809E-2"/>
+                  <c:y val="-7.3273964537840977E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9138230357596809E-2"/>
+                  <c:y val="-8.5161035491798778E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1515644696737401E-2"/>
+                  <c:y val="-7.3273964537840977E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.91382303575969E-2"/>
+                  <c:y val="-7.3273964537840908E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9138230357596809E-2"/>
+                  <c:y val="-6.9311607553188409E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9138230357596809E-2"/>
+                  <c:y val="-6.534925056853598E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9138230357596809E-2"/>
+                  <c:y val="-6.5349250568535827E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'190 Kb'!$B$9:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'190 Kb'!$P$9:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2939537932164509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0930103806228373</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52755695103213307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26290907880280984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.156366948498109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13155089122105612</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2157778037110505E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12516840753831768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1594091440"/>
+        <c:axId val="-1594099056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1594091440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50289351916851144"/>
+              <c:y val="0.9080533501728304"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1594099056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1594099056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed Up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9019314713124711E-2"/>
+              <c:y val="0.39638764081577132"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1594091440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -251,7 +1662,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -294,7 +1705,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -312,7 +1725,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -330,7 +1745,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -348,7 +1765,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -366,7 +1785,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -384,7 +1805,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -402,7 +1825,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -420,7 +1845,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -438,7 +1865,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -467,7 +1896,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -637,11 +2066,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1088358608"/>
-        <c:axId val="-1088358064"/>
+        <c:axId val="-1598523936"/>
+        <c:axId val="-1598534816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1088358608"/>
+        <c:axId val="-1598523936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,7 +2135,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -744,10 +2173,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1088358064"/>
+        <c:crossAx val="-1598534816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -755,7 +2184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1088358064"/>
+        <c:axId val="-1598534816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,7 +2263,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -866,10 +2295,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1088358608"/>
+        <c:crossAx val="-1598523936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -907,7 +2336,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -918,7 +2347,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -962,6 +2391,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -987,7 +2417,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1032,7 +2462,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1051,7 +2483,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1070,7 +2504,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1089,7 +2525,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1108,7 +2546,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1127,7 +2567,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1146,7 +2588,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1165,7 +2609,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1184,7 +2630,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1213,7 +2661,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1405,11 +2853,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1088365136"/>
-        <c:axId val="-1088354256"/>
+        <c:axId val="-1598532640"/>
+        <c:axId val="-1598526656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1088365136"/>
+        <c:axId val="-1598532640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1474,7 +2922,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1512,10 +2960,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1088354256"/>
+        <c:crossAx val="-1598526656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1523,7 +2971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1088354256"/>
+        <c:axId val="-1598526656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1602,7 +3050,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1634,10 +3082,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1088365136"/>
+        <c:crossAx val="-1598532640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1675,7 +3123,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1686,7 +3134,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1726,6 +3174,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1751,7 +3200,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1796,7 +3245,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1815,7 +3266,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1834,7 +3287,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1853,7 +3308,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1872,7 +3329,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1891,7 +3350,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1910,7 +3371,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1929,7 +3392,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1958,7 +3423,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1971,6 +3436,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2162,11 +3628,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1088366224"/>
-        <c:axId val="-1088355888"/>
+        <c:axId val="-1598526112"/>
+        <c:axId val="-1598519584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1088366224"/>
+        <c:axId val="-1598526112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,7 +3697,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2269,10 +3735,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1088355888"/>
+        <c:crossAx val="-1598519584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2280,7 +3746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1088355888"/>
+        <c:axId val="-1598519584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,6 +3797,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2356,7 +3823,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2388,10 +3855,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1088366224"/>
+        <c:crossAx val="-1598526112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2429,7 +3896,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2440,7 +3907,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2480,6 +3947,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2505,7 +3973,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2547,7 +4015,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2566,7 +4036,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2585,7 +4057,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2604,7 +4078,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2623,7 +4099,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2642,7 +4120,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2661,7 +4141,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2680,7 +4162,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2709,7 +4193,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2722,6 +4206,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2898,11 +4383,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1088364592"/>
-        <c:axId val="-1088359696"/>
+        <c:axId val="-1598525024"/>
+        <c:axId val="-1598531008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1088364592"/>
+        <c:axId val="-1598525024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2967,7 +4452,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3005,10 +4490,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1088359696"/>
+        <c:crossAx val="-1598531008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3016,7 +4501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1088359696"/>
+        <c:axId val="-1598531008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3100,7 +4585,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3132,10 +4617,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1088364592"/>
+        <c:crossAx val="-1598525024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3173,7 +4658,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3184,7 +4669,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3224,7 +4709,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3359,11 +4844,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1088368944"/>
-        <c:axId val="-1088362960"/>
+        <c:axId val="-1598520128"/>
+        <c:axId val="-1598527744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1088368944"/>
+        <c:axId val="-1598520128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3403,10 +4888,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1088362960"/>
+        <c:crossAx val="-1598527744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3414,7 +4899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1088362960"/>
+        <c:axId val="-1598527744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3462,10 +4947,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1088368944"/>
+        <c:crossAx val="-1598520128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3504,7 +4989,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3534,7 +5019,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3546,8 +5031,42 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="23">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -3592,42 +5111,8 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="23">
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -3711,8 +5196,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3820,6 +5385,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3830,6 +5400,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3861,6 +5436,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4731,7 +6309,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4839,11 +6417,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4854,11 +6427,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4890,9 +6458,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6278,7 +7843,1104 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>579438</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6343,7 +9005,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6408,7 +9070,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6732,8 +9394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7062,8 +9724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7075,7 +9737,7 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>50000</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -7191,8 +9853,8 @@
         <v>6.1029999999999999E-3</v>
       </c>
       <c r="N10" s="2">
-        <f>$N$7/B10</f>
-        <v>0</v>
+        <f>$N$9/B10</f>
+        <v>3.9484999999999998E-3</v>
       </c>
       <c r="P10" s="5">
         <f>$L$9/L10</f>
@@ -7227,8 +9889,8 @@
         <v>7.2249999999999997E-3</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11:N17" si="2">$N$7/B11</f>
-        <v>0</v>
+        <f t="shared" ref="N11:N17" si="2">$N$9/B11</f>
+        <v>1.9742499999999999E-3</v>
       </c>
       <c r="P11" s="5">
         <f>$L$9/L11</f>
@@ -7264,7 +9926,7 @@
       </c>
       <c r="N12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.8712499999999994E-4</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" ref="P12:P17" si="3">$L$9/L12</f>
@@ -7300,7 +9962,7 @@
       </c>
       <c r="N13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.9356249999999997E-4</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="3"/>
@@ -7336,7 +9998,7 @@
       </c>
       <c r="N14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.2904166666666666E-4</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" si="3"/>
@@ -7372,7 +10034,7 @@
       </c>
       <c r="N15" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.4678124999999998E-4</v>
       </c>
       <c r="P15" s="5">
         <f t="shared" si="3"/>
@@ -7408,7 +10070,7 @@
       </c>
       <c r="N16" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.9742499999999999E-4</v>
       </c>
       <c r="P16" s="5">
         <f t="shared" si="3"/>
@@ -7444,7 +10106,7 @@
       </c>
       <c r="N17" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.6452083333333333E-4</v>
       </c>
       <c r="P17" s="5">
         <f t="shared" si="3"/>
@@ -7453,6 +10115,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7460,8 +10123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/gráficos.xlsx
+++ b/gráficos.xlsx
@@ -4,24 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="714" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="20 Kb" sheetId="5" r:id="rId1"/>
-    <sheet name="190 Kb" sheetId="6" r:id="rId2"/>
-    <sheet name="20 MB" sheetId="1" r:id="rId3"/>
-    <sheet name="76 MB" sheetId="2" r:id="rId4"/>
-    <sheet name="comparação" sheetId="3" r:id="rId5"/>
+    <sheet name="190 Kb" sheetId="6" r:id="rId1"/>
+    <sheet name="20 MB" sheetId="1" r:id="rId2"/>
+    <sheet name="76 MB" sheetId="2" r:id="rId3"/>
+    <sheet name="Otimização do Compilador" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
-  <si>
-    <t>Time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>Threads</t>
   </si>
@@ -32,19 +28,7 @@
     <t>Tamanho</t>
   </si>
   <si>
-    <t>5,000,000</t>
-  </si>
-  <si>
-    <t>elementos</t>
-  </si>
-  <si>
-    <t>MBytes</t>
-  </si>
-  <si>
     <t>Média</t>
-  </si>
-  <si>
-    <t>Best Value</t>
   </si>
   <si>
     <t>Speed Up</t>
@@ -56,46 +40,31 @@
     <t>Speed Up Ideal</t>
   </si>
   <si>
-    <t>20,000,000</t>
+    <t>Sem Otimização</t>
   </si>
   <si>
-    <t>rep</t>
+    <t>Com Otimização</t>
   </si>
   <si>
-    <t>20Kb</t>
+    <t>Melhor Valor</t>
   </si>
   <si>
-    <t>200KB</t>
+    <t>Reptição</t>
   </si>
   <si>
-    <t>20MB</t>
+    <t>Elementos</t>
   </si>
   <si>
-    <t>76MB</t>
+    <t>195.312 KBytes</t>
   </si>
   <si>
-    <t>190 KB</t>
+    <t>19,073 MBytes</t>
   </si>
   <si>
-    <t>20 Kb</t>
+    <t>76,294 MBytes</t>
   </si>
   <si>
-    <t>20 MB</t>
-  </si>
-  <si>
-    <t>76 MB</t>
-  </si>
-  <si>
-    <t>195.312</t>
-  </si>
-  <si>
-    <t>KBytes</t>
-  </si>
-  <si>
-    <t>19.531</t>
-  </si>
-  <si>
-    <t>Kb</t>
+    <t>Diferença Média</t>
   </si>
 </sst>
 </file>
@@ -119,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -142,26 +111,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -501,7 +594,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -522,7 +614,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'190 Kb'!$B$9:$B$17</c:f>
+              <c:f>'190 Kb'!$B$6:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -558,7 +650,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'190 Kb'!$L$9:$L$17</c:f>
+              <c:f>'190 Kb'!$K$6:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -604,11 +696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1594091984"/>
-        <c:axId val="-1594095248"/>
+        <c:axId val="-1629490304"/>
+        <c:axId val="-1629501728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1594091984"/>
+        <c:axId val="-1629490304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,7 +806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1594095248"/>
+        <c:crossAx val="-1629501728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -722,7 +814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1594095248"/>
+        <c:axId val="-1629501728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1594091984"/>
+        <c:crossAx val="-1629490304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1205,7 +1297,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1226,7 +1317,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'190 Kb'!$B$9:$B$17</c:f>
+              <c:f>'190 Kb'!$B$6:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1262,7 +1353,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'190 Kb'!$P$9:$P$17</c:f>
+              <c:f>'190 Kb'!$N$6:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1308,11 +1399,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1594091440"/>
-        <c:axId val="-1594099056"/>
+        <c:axId val="-1629499008"/>
+        <c:axId val="-1629497920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1594091440"/>
+        <c:axId val="-1629499008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1594099056"/>
+        <c:crossAx val="-1629497920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1426,7 +1517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1594099056"/>
+        <c:axId val="-1629497920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,7 +1631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1594091440"/>
+        <c:crossAx val="-1629499008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1928,7 +2019,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'20 MB'!$B$7:$B$15</c:f>
+              <c:f>'20 MB'!$B$6:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1964,7 +2055,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20 MB'!$L$7:$L$15</c:f>
+              <c:f>'20 MB'!$K$6:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2021,7 +2112,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'20 MB'!$N$7:$N$15</c:f>
+              <c:f>'20 MB'!$M$6:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2066,11 +2157,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1598523936"/>
-        <c:axId val="-1598534816"/>
+        <c:axId val="-1629495744"/>
+        <c:axId val="-1648299344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1598523936"/>
+        <c:axId val="-1629495744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,7 +2267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1598534816"/>
+        <c:crossAx val="-1648299344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2184,7 +2275,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1598534816"/>
+        <c:axId val="-1648299344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,7 +2389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1598523936"/>
+        <c:crossAx val="-1629495744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2694,7 +2785,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'20 MB'!$B$7:$B$15</c:f>
+              <c:f>'20 MB'!$B$6:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2730,7 +2821,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20 MB'!$P$7:$P$15</c:f>
+              <c:f>'20 MB'!$N$6:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2787,7 +2878,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'20 MB'!$B$7:$B$15</c:f>
+              <c:f>'20 MB'!$B$6:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2823,7 +2914,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20 MB'!$Q$7:$Q$15</c:f>
+              <c:f>'20 MB'!$O$6:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2853,11 +2944,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1598532640"/>
-        <c:axId val="-1598526656"/>
+        <c:axId val="-1450021936"/>
+        <c:axId val="-1450028464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1598532640"/>
+        <c:axId val="-1450021936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,7 +3054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1598526656"/>
+        <c:crossAx val="-1450028464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2971,7 +3062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1598526656"/>
+        <c:axId val="-1450028464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3085,7 +3176,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1598532640"/>
+        <c:crossAx val="-1450021936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3457,7 +3548,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'76 MB'!$B$9:$B$17</c:f>
+              <c:f>'76 MB'!$B$6:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3493,7 +3584,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'76 MB'!$L$9:$L$17</c:f>
+              <c:f>'76 MB'!$K$6:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3547,7 +3638,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'76 MB'!$B$9:$B$17</c:f>
+              <c:f>'76 MB'!$B$6:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3583,7 +3674,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'76 MB'!$N$9:$N$17</c:f>
+              <c:f>'76 MB'!$M$6:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3628,11 +3719,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1598526112"/>
-        <c:axId val="-1598519584"/>
+        <c:axId val="-1450014320"/>
+        <c:axId val="-1450018128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1598526112"/>
+        <c:axId val="-1450014320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3738,7 +3829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1598519584"/>
+        <c:crossAx val="-1450018128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3746,7 +3837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1598519584"/>
+        <c:axId val="-1450018128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3858,7 +3949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1598526112"/>
+        <c:crossAx val="-1450014320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4227,7 +4318,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'76 MB'!$B$9:$B$17</c:f>
+              <c:f>'76 MB'!$B$6:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4263,7 +4354,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'76 MB'!$P$9:$P$17</c:f>
+              <c:f>'76 MB'!$N$6:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4317,7 +4408,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'76 MB'!$B$9:$B$17</c:f>
+              <c:f>'76 MB'!$B$6:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4353,7 +4444,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'76 MB'!$Q$9:$Q$17</c:f>
+              <c:f>'76 MB'!$O$6:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4383,11 +4474,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1598525024"/>
-        <c:axId val="-1598531008"/>
+        <c:axId val="-1450027376"/>
+        <c:axId val="-1450023568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1598525024"/>
+        <c:axId val="-1450027376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4493,7 +4584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1598531008"/>
+        <c:crossAx val="-1450023568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4501,7 +4592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1598531008"/>
+        <c:axId val="-1450023568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4620,7 +4711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1598525024"/>
+        <c:crossAx val="-1450027376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4632,367 +4723,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>comparação!$C$34:$C$37</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>20Kb</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200KB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20MB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>76MB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>comparação!$L$34:$L$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8.4790000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4969E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22243099999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75531700000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>comparação!$C$34:$C$37</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>20Kb</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200KB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20MB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>76MB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>comparação!$O$34:$O$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.7169999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2249999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24804999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0962909999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-1598520128"/>
-        <c:axId val="-1598527744"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1598520128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1598527744"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1598527744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1598520128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5236,46 +4966,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7844,522 +7534,6 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8881,13 +8055,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8909,16 +8083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>579438</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8946,13 +8120,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8974,15 +8148,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>147636</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9010,14 +8184,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>319086</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>406399</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9039,15 +8213,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9062,41 +8236,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9392,728 +8531,843 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P17"/>
+  <dimension ref="B2:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="P6" sqref="P6:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="1.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="5.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="6">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.1985000000000001E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7.9050000000000006E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8.3960000000000007E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7.8969999999999995E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8.2179999999999996E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <f>AVERAGE(D6:H6)</f>
+        <v>8.8801999999999996E-3</v>
+      </c>
+      <c r="K6" s="2">
+        <f>MIN(D6:H6)</f>
+        <v>7.8969999999999995E-3</v>
+      </c>
+      <c r="M6" s="2">
+        <f>K6</f>
+        <v>7.8969999999999995E-3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.2420000000000002E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8.6700000000000006E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6.9740000000000002E-3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6.3330000000000001E-3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6.1029999999999999E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ref="J7:J14" si="0">AVERAGE(D7:H7)</f>
+        <v>7.0644000000000002E-3</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7:K13" si="1">MIN(D7:H7)</f>
+        <v>6.1029999999999999E-3</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M14" si="2">$M$6/B7</f>
+        <v>3.9484999999999998E-3</v>
+      </c>
+      <c r="N7" s="3">
+        <f>$K$6/K7</f>
+        <v>1.2939537932164509</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8.2810000000000002E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9.6970000000000008E-3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8.2109999999999995E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7.2989999999999999E-3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7.2249999999999997E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>8.1426000000000016E-3</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>7.2249999999999997E-3</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9742499999999999E-3</v>
+      </c>
+      <c r="N8" s="3">
+        <f>$K$6/K8</f>
+        <v>1.0930103806228373</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.4969E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.5370999999999999E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.686E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.7174999999999999E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.8141000000000001E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6503200000000003E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4969E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8712499999999994E-4</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" ref="N9:N14" si="3">$K$6/K9</f>
+        <v>0.52755695103213307</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.3753999999999999E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3.7819999999999999E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3.0037000000000001E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3.4401000000000001E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3.7272E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4656800000000001E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0037000000000001E-2</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>4.9356249999999997E-4</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.26290907880280984</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
+      <c r="D11" s="2">
+        <v>5.6960999999999998E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5.1130000000000002E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5.1457000000000003E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5.0856999999999999E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5.0502999999999999E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2181600000000009E-2</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0502999999999999E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2904166666666666E-4</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.156366948498109</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>9</v>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8.1434999999999994E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6.5946000000000005E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6.2754000000000004E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6.003E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>7.6974000000000001E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9427799999999998E-2</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>6.003E-2</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4678124999999998E-4</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13155089122105612</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>1</v>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.101109</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8.9287000000000005E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8.5690000000000002E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8.7965000000000002E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9.9079E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2626000000000014E-2</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>8.5690000000000002E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9742499999999999E-4</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="3"/>
+        <v>9.2157778037110505E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.7049999999999999E-3</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="K9" s="2">
-        <f>AVERAGE(E9:I9)</f>
-        <v>1.7049999999999999E-3</v>
-      </c>
-      <c r="L9" s="2">
-        <f>MIN(E9:I9)</f>
-        <v>1.7049999999999999E-3</v>
-      </c>
-      <c r="N9" s="2">
-        <f>L9</f>
-        <v>1.7049999999999999E-3</v>
-      </c>
-      <c r="P9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="K10" s="2" t="e">
-        <f t="shared" ref="K10:K17" si="0">AVERAGE(E10:I10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" ref="L10:L16" si="1">MIN(E10:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <f>$N$7/B10</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="5" t="e">
-        <f>$L$9/L10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2">
-        <v>6.5430000000000002E-3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3.7169999999999998E-3</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4.3400000000000001E-3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>4.4879999999999998E-3</v>
-      </c>
-      <c r="I11" s="2">
-        <v>6.496E-3</v>
-      </c>
-      <c r="K11" s="2">
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7.2318999999999994E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6.9727999999999998E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6.3090999999999994E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6.4704999999999999E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>7.5727000000000003E-2</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>5.1168000000000003E-3</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="1"/>
-        <v>3.7169999999999998E-3</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" ref="N11:N17" si="2">$N$7/B11</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <f t="shared" ref="P11:P17" si="3">$L$9/L11</f>
-        <v>0.45870325531342482</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2">
-        <v>8.4790000000000004E-3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>9.8740000000000008E-3</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1.0241E-2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1.0351000000000001E-2</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1.3764999999999999E-2</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0541999999999999E-2</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="1"/>
-        <v>8.4790000000000004E-3</v>
-      </c>
-      <c r="N12" s="2">
+        <v>6.9113999999999995E-2</v>
+      </c>
+      <c r="K14" s="2">
+        <f>MIN(D14:H14)</f>
+        <v>6.3090999999999994E-2</v>
+      </c>
+      <c r="M14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
+        <v>1.6452083333333333E-4</v>
+      </c>
+      <c r="N14" s="3">
         <f t="shared" si="3"/>
-        <v>0.20108503361245428</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="K13" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="K14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="K15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>40</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="K16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>48</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="K17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="2">
-        <f>MIN(E17:I17)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.12516840753831768</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P17"/>
+  <dimension ref="B2:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="1.85546875" style="1" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="2.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
-        <v>50000</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="6">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
+      <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="5" spans="2:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.85342499999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.83419500000000002</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.840804</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.85930300000000004</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.84702299999999997</v>
+      </c>
+      <c r="J6" s="2">
+        <f>AVERAGE(D6:H6)</f>
+        <v>0.84694999999999998</v>
+      </c>
+      <c r="K6" s="2">
+        <f>MIN(D6:H6)</f>
+        <v>0.83419500000000002</v>
+      </c>
+      <c r="M6" s="2">
+        <f>K6</f>
+        <v>0.83419500000000002</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="14">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="D7" s="2">
+        <v>0.442741</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.444295</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.43781500000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.44293100000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.440058</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ref="J7:J14" si="0">AVERAGE(D7:H7)</f>
+        <v>0.44156800000000002</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7:K13" si="1">MIN(D7:H7)</f>
+        <v>0.43781500000000001</v>
+      </c>
+      <c r="M7" s="2">
+        <f>$M$6/B7</f>
+        <v>0.41709750000000001</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" ref="N7:N14" si="2">$K$6/K7</f>
+        <v>1.905359569681258</v>
+      </c>
+      <c r="O7" s="2">
+        <f>$O$6*B7</f>
         <v>2</v>
       </c>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
         <v>4</v>
       </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="D8" s="2">
+        <v>0.25273200000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.24804999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.27013199999999998</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.25151499999999999</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.26360899999999998</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25720759999999998</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24804999999999999</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" ref="M8:M14" si="3">$M$6/B8</f>
+        <v>0.20854875</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="2"/>
+        <v>3.3630114896190286</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" ref="O8:O9" si="4">$O$6*B8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
         <v>8</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>9</v>
+      <c r="D9" s="2">
+        <v>0.232264</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.22955800000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.22243099999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.24835299999999999</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.26863300000000001</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24024780000000004</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22243099999999999</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.104274375</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="2"/>
+        <v>3.7503540423771868</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>1</v>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.24849499999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.26306600000000002</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.26949200000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.28389500000000001</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.26122000000000001</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26523360000000001</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24849499999999999</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2137187500000001E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="2"/>
+        <v>3.3569890742268456</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.1985000000000001E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>7.9050000000000006E-3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8.3960000000000007E-3</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7.8969999999999995E-3</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8.2179999999999996E-3</v>
-      </c>
-      <c r="K9" s="2">
-        <f>AVERAGE(E9:I9)</f>
-        <v>8.8801999999999996E-3</v>
-      </c>
-      <c r="L9" s="2">
-        <f>MIN(E9:I9)</f>
-        <v>7.8969999999999995E-3</v>
-      </c>
-      <c r="N9" s="2">
-        <f>L9</f>
-        <v>7.8969999999999995E-3</v>
-      </c>
-      <c r="P9" s="5">
-        <v>1</v>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.28842699999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.25822499999999998</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.26693600000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.29179899999999998</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.26194000000000001</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.27346539999999997</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25822499999999998</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4758125000000001E-2</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2304966598896314</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>7.2420000000000002E-3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>8.6700000000000006E-3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>6.9740000000000002E-3</v>
-      </c>
-      <c r="H10" s="3">
-        <v>6.3330000000000001E-3</v>
-      </c>
-      <c r="I10" s="3">
-        <v>6.1029999999999999E-3</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" ref="K10:K17" si="0">AVERAGE(E10:I10)</f>
-        <v>7.0644000000000002E-3</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" ref="L10:L16" si="1">MIN(E10:I10)</f>
-        <v>6.1029999999999999E-3</v>
-      </c>
-      <c r="N10" s="2">
-        <f>$N$9/B10</f>
-        <v>3.9484999999999998E-3</v>
-      </c>
-      <c r="P10" s="5">
-        <f>$L$9/L10</f>
-        <v>1.2939537932164509</v>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.34729300000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.32923000000000002</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.31908599999999998</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.31898500000000002</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.31331599999999998</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.32558199999999998</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.31331599999999998</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6068593750000001E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="2"/>
+        <v>2.662471753756591</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2">
-        <v>8.2810000000000002E-3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>9.6970000000000008E-3</v>
-      </c>
-      <c r="G11" s="2">
-        <v>8.2109999999999995E-3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>7.2989999999999999E-3</v>
-      </c>
-      <c r="I11" s="2">
-        <v>7.2249999999999997E-3</v>
-      </c>
-      <c r="K11" s="2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.43299500000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.37698199999999998</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.40404299999999999</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.32450800000000002</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.36399199999999998</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>8.1426000000000016E-3</v>
-      </c>
-      <c r="L11" s="2">
+        <v>0.38050400000000001</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>7.2249999999999997E-3</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" ref="N11:N17" si="2">$N$9/B11</f>
-        <v>1.9742499999999999E-3</v>
-      </c>
-      <c r="P11" s="5">
-        <f>$L$9/L11</f>
-        <v>1.0930103806228373</v>
+        <v>0.32450800000000002</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0854875000000002E-2</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5706454078173726</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1.4969E-2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.5370999999999999E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1.686E-2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1.7174999999999999E-2</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1.8141000000000001E-2</v>
-      </c>
-      <c r="K12" s="2">
+    <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.44735900000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.442965</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.47686600000000001</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.373691</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.52825</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>1.6503200000000003E-2</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="1"/>
-        <v>1.4969E-2</v>
-      </c>
-      <c r="N12" s="2">
+        <v>0.45382619999999996</v>
+      </c>
+      <c r="K14" s="2">
+        <f>MIN(D14:H14)</f>
+        <v>0.373691</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="3"/>
+        <v>1.73790625E-2</v>
+      </c>
+      <c r="N14" s="3">
         <f t="shared" si="2"/>
-        <v>9.8712499999999994E-4</v>
-      </c>
-      <c r="P12" s="5">
-        <f t="shared" ref="P12:P17" si="3">$L$9/L12</f>
-        <v>0.52755695103213307</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3.3753999999999999E-2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3.7819999999999999E-2</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3.0037000000000001E-2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3.4401000000000001E-2</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3.7272E-2</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4656800000000001E-2</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="1"/>
-        <v>3.0037000000000001E-2</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="2"/>
-        <v>4.9356249999999997E-4</v>
-      </c>
-      <c r="P13" s="5">
-        <f t="shared" si="3"/>
-        <v>0.26290907880280984</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5.6960999999999998E-2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5.1130000000000002E-2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5.1457000000000003E-2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5.0856999999999999E-2</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5.0502999999999999E-2</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="0"/>
-        <v>5.2181600000000009E-2</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="1"/>
-        <v>5.0502999999999999E-2</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="2"/>
-        <v>3.2904166666666666E-4</v>
-      </c>
-      <c r="P14" s="5">
-        <f t="shared" si="3"/>
-        <v>0.156366948498109</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8.1434999999999994E-2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6.5946000000000005E-2</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6.2754000000000004E-2</v>
-      </c>
-      <c r="H15" s="3">
-        <v>6.003E-2</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7.6974000000000001E-2</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="0"/>
-        <v>6.9427799999999998E-2</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="1"/>
-        <v>6.003E-2</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="2"/>
-        <v>2.4678124999999998E-4</v>
-      </c>
-      <c r="P15" s="5">
-        <f t="shared" si="3"/>
-        <v>0.13155089122105612</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>40</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.101109</v>
-      </c>
-      <c r="F16" s="3">
-        <v>8.9287000000000005E-2</v>
-      </c>
-      <c r="G16" s="3">
-        <v>8.5690000000000002E-2</v>
-      </c>
-      <c r="H16" s="3">
-        <v>8.7965000000000002E-2</v>
-      </c>
-      <c r="I16" s="3">
-        <v>9.9079E-2</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="0"/>
-        <v>9.2626000000000014E-2</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="1"/>
-        <v>8.5690000000000002E-2</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="2"/>
-        <v>1.9742499999999999E-4</v>
-      </c>
-      <c r="P16" s="5">
-        <f t="shared" si="3"/>
-        <v>9.2157778037110505E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>48</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7.2318999999999994E-2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6.9727999999999998E-2</v>
-      </c>
-      <c r="G17" s="3">
-        <v>6.3090999999999994E-2</v>
-      </c>
-      <c r="H17" s="3">
-        <v>6.4704999999999999E-2</v>
-      </c>
-      <c r="I17" s="3">
-        <v>7.5727000000000003E-2</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="0"/>
-        <v>6.9113999999999995E-2</v>
-      </c>
-      <c r="L17" s="2">
-        <f>MIN(E17:I17)</f>
-        <v>6.3090999999999994E-2</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6452083333333333E-4</v>
-      </c>
-      <c r="P17" s="5">
-        <f t="shared" si="3"/>
-        <v>0.12516840753831768</v>
+        <v>2.2323122579885522</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10121,1342 +9375,560 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q15"/>
+  <dimension ref="B2:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" style="1" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="2" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G4" s="6">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H4" s="5">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
-        <v>19.073</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="Q4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="5" spans="2:18" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.507638</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.4967030000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.5412789999999998</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.5178400000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.5101749999999998</v>
+      </c>
+      <c r="J6" s="2">
+        <f>AVERAGE(D6:H6)</f>
+        <v>3.5147269999999997</v>
+      </c>
+      <c r="K6" s="2">
+        <f>MIN(D6:H6)</f>
+        <v>3.4967030000000001</v>
+      </c>
+      <c r="M6" s="2">
+        <f>K6</f>
+        <v>3.4967030000000001</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="14">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D7" s="2">
+        <v>1.8412269999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.818681</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.848957</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.8173760000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.8281849999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ref="J7:J14" si="0">AVERAGE(D7:H7)</f>
+        <v>1.8308852000000002</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7:K13" si="1">MIN(D7:H7)</f>
+        <v>1.8173760000000001</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M14" si="2">$M$6/B7</f>
+        <v>1.7483515000000001</v>
+      </c>
+      <c r="N7" s="3">
+        <f>$K$6/K7</f>
+        <v>1.9240393842551018</v>
+      </c>
+      <c r="O7" s="2">
+        <f>$O$6*B7</f>
         <v>2</v>
       </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
         <v>4</v>
       </c>
-      <c r="I4" s="2">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="D8" s="2">
+        <v>1.1210830000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.1004813</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.1279140000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.1460170000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.0962909999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.11835726</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0962909999999999</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.87417575000000003</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" ref="N8:N14" si="3">$K$6/K8</f>
+        <v>3.1895755780171511</v>
+      </c>
+      <c r="O8" s="2">
+        <f>$O$6*B8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
         <v>8</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>11</v>
+      <c r="D9" s="2">
+        <v>0.83651200000000003</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.86646199999999995</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.75531700000000002</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.95313599999999998</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.87135099999999999</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.85655559999999986</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75531700000000002</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.43708787500000001</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="3"/>
+        <v>4.629450945761846</v>
+      </c>
+      <c r="O9" s="2">
+        <f>$O$6*B9</f>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>1</v>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.863008</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.92658300000000005</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.808392</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.86082099999999995</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.89337299999999997</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.87043540000000008</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.808392</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.21854393750000001</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="3"/>
+        <v>4.3255042108284103</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.85342499999999999</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.83419500000000002</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.840804</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.85930300000000004</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.84702299999999997</v>
-      </c>
-      <c r="K7" s="2">
-        <f>AVERAGE(E7:I7)</f>
-        <v>0.84694999999999998</v>
-      </c>
-      <c r="L7" s="2">
-        <f>MIN(E7:I7)</f>
-        <v>0.83419500000000002</v>
-      </c>
-      <c r="N7" s="2">
-        <f>L7</f>
-        <v>0.83419500000000002</v>
-      </c>
-      <c r="P7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1</v>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.85499000000000003</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.78125999999999995</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.90306799999999998</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.81550900000000004</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.87588699999999997</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84614279999999997</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.78125999999999995</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14569595833333335</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="3"/>
+        <v>4.4757225507513505</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.442741</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.444295</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.43781500000000001</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.44293100000000002</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.440058</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" ref="K8:K15" si="0">AVERAGE(E8:I8)</f>
-        <v>0.44156800000000002</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" ref="L8:L14" si="1">MIN(E8:I8)</f>
-        <v>0.43781500000000001</v>
-      </c>
-      <c r="N8" s="2">
-        <f>$N$7/B8</f>
-        <v>0.41709750000000001</v>
-      </c>
-      <c r="P8" s="5">
-        <f t="shared" ref="P8:P15" si="2">$L$7/L8</f>
-        <v>1.905359569681258</v>
-      </c>
-      <c r="Q8" s="2">
-        <f>$Q$7*B8</f>
-        <v>2</v>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.89712400000000003</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.86317100000000002</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.93327300000000002</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.830206</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.91501449999999995</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88775770000000009</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.830206</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10927196875</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2118498300421825</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.25273200000000001</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.24804999999999999</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.27013199999999998</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.25151499999999999</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.26360899999999998</v>
-      </c>
-      <c r="K9" s="2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.95296899999999996</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.074813</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.0016238</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.96748800000000001</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.0645100000000001</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>0.25720759999999998</v>
-      </c>
-      <c r="L9" s="2">
+        <v>1.0122807599999999</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>0.24804999999999999</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" ref="N9:N15" si="3">$N$7/B9</f>
-        <v>0.20854875</v>
-      </c>
-      <c r="P9" s="5">
+        <v>0.95296899999999996</v>
+      </c>
+      <c r="M13" s="2">
         <f t="shared" si="2"/>
-        <v>3.3630114896190286</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" ref="Q9:Q10" si="4">$Q$7*B9</f>
-        <v>4</v>
+        <v>8.7417574999999997E-2</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="3"/>
+        <v>3.6692725576592737</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.232264</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.22955800000000001</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.22243099999999999</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.24835299999999999</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.26863300000000001</v>
-      </c>
-      <c r="K10" s="2">
+    <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.191203</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.099693</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.1019509999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.047477</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.0825629999999999</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>0.24024780000000004</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.22243099999999999</v>
-      </c>
-      <c r="N10" s="2">
+        <v>1.1045773999999997</v>
+      </c>
+      <c r="K14" s="2">
+        <f>MIN(D14:H14)</f>
+        <v>1.047477</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>7.2847979166666674E-2</v>
+      </c>
+      <c r="N14" s="3">
         <f t="shared" si="3"/>
-        <v>0.104274375</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="2"/>
-        <v>3.7503540423771868</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>16</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.24849499999999999</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.26306600000000002</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.26949200000000001</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.28389500000000001</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.26122000000000001</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.26523360000000001</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.24849499999999999</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="3"/>
-        <v>5.2137187500000001E-2</v>
-      </c>
-      <c r="P11" s="5">
-        <f t="shared" si="2"/>
-        <v>3.3569890742268456</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.28842699999999999</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.25822499999999998</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.26693600000000001</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.29179899999999998</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.26194000000000001</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.27346539999999997</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.25822499999999998</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4758125000000001E-2</v>
-      </c>
-      <c r="P12" s="5">
-        <f t="shared" si="2"/>
-        <v>3.2304966598896314</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.34729300000000002</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.32923000000000002</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.31908599999999998</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.31898500000000002</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.31331599999999998</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.32558199999999998</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.31331599999999998</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="3"/>
-        <v>2.6068593750000001E-2</v>
-      </c>
-      <c r="P13" s="5">
-        <f t="shared" si="2"/>
-        <v>2.662471753756591</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>40</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.43299500000000002</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.37698199999999998</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.40404299999999999</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.32450800000000002</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.36399199999999998</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.38050400000000001</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.32450800000000002</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="3"/>
-        <v>2.0854875000000002E-2</v>
-      </c>
-      <c r="P14" s="5">
-        <f t="shared" si="2"/>
-        <v>2.5706454078173726</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>48</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.44735900000000001</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.442965</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.47686600000000001</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.373691</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.52825</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.45382619999999996</v>
-      </c>
-      <c r="L15" s="2">
-        <f>MIN(E15:I15)</f>
-        <v>0.373691</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="3"/>
-        <v>1.73790625E-2</v>
-      </c>
-      <c r="P15" s="5">
-        <f t="shared" si="2"/>
-        <v>2.2323122579885522</v>
+        <v>3.338214586095924</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:Q17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>76.293999999999997</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3.507638</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.4967030000000001</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3.5412789999999998</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3.5178400000000001</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3.5101749999999998</v>
-      </c>
-      <c r="K9" s="2">
-        <f>AVERAGE(E9:I9)</f>
-        <v>3.5147269999999997</v>
-      </c>
-      <c r="L9" s="2">
-        <f>MIN(E9:I9)</f>
-        <v>3.4967030000000001</v>
-      </c>
-      <c r="N9" s="2">
-        <f>L9</f>
-        <v>3.4967030000000001</v>
-      </c>
-      <c r="P9" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1.8412269999999999</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1.818681</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1.848957</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1.8173760000000001</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1.8281849999999999</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" ref="K10:K17" si="0">AVERAGE(E10:I10)</f>
-        <v>1.8308852000000002</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" ref="L10:L16" si="1">MIN(E10:I10)</f>
-        <v>1.8173760000000001</v>
-      </c>
-      <c r="N10" s="2">
-        <f>$N$9/B10</f>
-        <v>1.7483515000000001</v>
-      </c>
-      <c r="P10" s="5">
-        <f>$L$9/L10</f>
-        <v>1.9240393842551018</v>
-      </c>
-      <c r="Q10" s="2">
-        <f>$Q$9*B10</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1.1210830000000001</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1.1004813</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1.1279140000000001</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1.1460170000000001</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1.0962909999999999</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>1.11835726</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0962909999999999</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" ref="N11:N17" si="2">$N$9/B11</f>
-        <v>0.87417575000000003</v>
-      </c>
-      <c r="P11" s="5">
-        <f t="shared" ref="P11:P17" si="3">$L$9/L11</f>
-        <v>3.1895755780171511</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" ref="Q11:Q12" si="4">$Q$9*B11</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.83651200000000003</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.86646199999999995</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.75531700000000002</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.95313599999999998</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.87135099999999999</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.85655559999999986</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.75531700000000002</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" si="2"/>
-        <v>0.43708787500000001</v>
-      </c>
-      <c r="P12" s="5">
-        <f t="shared" si="3"/>
-        <v>4.629450945761846</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.863008</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.92658300000000005</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.808392</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.86082099999999995</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.89337299999999997</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.87043540000000008</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.808392</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.21854393750000001</v>
-      </c>
-      <c r="P13" s="5">
-        <f t="shared" si="3"/>
-        <v>4.3255042108284103</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.85499000000000003</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.78125999999999995</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.90306799999999998</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.81550900000000004</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.87588699999999997</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.84614279999999997</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.78125999999999995</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="2"/>
-        <v>0.14569595833333335</v>
-      </c>
-      <c r="P14" s="5">
-        <f t="shared" si="3"/>
-        <v>4.4757225507513505</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.89712400000000003</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.86317100000000002</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.93327300000000002</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.830206</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.91501449999999995</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.88775770000000009</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.830206</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="2"/>
-        <v>0.10927196875</v>
-      </c>
-      <c r="P15" s="5">
-        <f t="shared" si="3"/>
-        <v>4.2118498300421825</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>40</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.95296899999999996</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1.074813</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1.0016238</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.96748800000000001</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1.0645100000000001</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0122807599999999</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.95296899999999996</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="2"/>
-        <v>8.7417574999999997E-2</v>
-      </c>
-      <c r="P16" s="5">
-        <f t="shared" si="3"/>
-        <v>3.6692725576592737</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>48</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1.191203</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1.099693</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1.1019509999999999</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1.047477</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1.0825629999999999</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1045773999999997</v>
-      </c>
-      <c r="L17" s="2">
-        <f>MIN(E17:I17)</f>
-        <v>1.047477</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="2"/>
-        <v>7.2847979166666674E-2</v>
-      </c>
-      <c r="P17" s="5">
-        <f t="shared" si="3"/>
-        <v>3.338214586095924</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O37"/>
+  <dimension ref="B2:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="1" customWidth="1"/>
+    <col min="4" max="8" width="10.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="11">
         <v>1</v>
       </c>
+      <c r="E4" s="12">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12">
+        <v>3</v>
+      </c>
+      <c r="G4" s="12">
+        <v>4</v>
+      </c>
+      <c r="H4" s="13">
+        <v>5</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2" t="s">
+    <row r="5" spans="2:13" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="D6" s="2">
+        <v>0.71914699999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.71662599999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.71665800000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.72587100000000004</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.71612799999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <f>AVERAGE(D6:H6)</f>
+        <v>0.71888600000000002</v>
+      </c>
+      <c r="K6" s="2">
+        <f>MIN(D6:H6)</f>
+        <v>0.71612799999999999</v>
+      </c>
+      <c r="M6" s="3">
+        <f>J6-J7</f>
+        <v>0.40793900000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.7049999999999999E-3</v>
-      </c>
-      <c r="K8" s="2">
-        <f>AVERAGE(E8:I8)</f>
-        <v>1.7049999999999999E-3</v>
-      </c>
-      <c r="L8" s="2">
-        <f>MIN(E8:I8)</f>
-        <v>1.7049999999999999E-3</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.1985000000000001E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>7.9050000000000006E-3</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" ref="K9" si="0">AVERAGE(E9:I9)</f>
-        <v>9.9450000000000007E-3</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" ref="L9:L11" si="1">MIN(E9:I9)</f>
-        <v>7.9050000000000006E-3</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.85342499999999999</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.83419500000000002</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.840804</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.85930300000000004</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.84702299999999997</v>
-      </c>
-      <c r="K10" s="2">
-        <f>AVERAGE(E10:I10)</f>
-        <v>0.84694999999999998</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.83419500000000002</v>
-      </c>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3.507638</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3.4967030000000001</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3.5412789999999998</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3.5178400000000001</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3.5101749999999998</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" ref="K11" si="2">AVERAGE(E11:I11)</f>
-        <v>3.5147269999999997</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4967030000000001</v>
-      </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3</v>
-      </c>
-      <c r="H17" s="2">
-        <v>4</v>
-      </c>
-      <c r="I17" s="2">
-        <v>5</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="2">
-        <v>6.5430000000000002E-3</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3.7169999999999998E-3</v>
-      </c>
-      <c r="G20" s="2">
-        <v>4.3400000000000001E-3</v>
-      </c>
-      <c r="H20" s="2">
-        <v>4.4879999999999998E-3</v>
-      </c>
-      <c r="I20" s="2">
-        <v>6.496E-3</v>
-      </c>
-      <c r="K20" s="2">
-        <f>AVERAGE(E20:I20)</f>
-        <v>5.1168000000000003E-3</v>
-      </c>
-      <c r="L20" s="2">
-        <f>MIN(E20:I20)</f>
-        <v>3.7169999999999998E-3</v>
-      </c>
-      <c r="N20" s="2">
-        <f>L8/L20</f>
-        <v>0.45870325531342482</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="2">
-        <v>8.2810000000000002E-3</v>
-      </c>
-      <c r="F21" s="2">
-        <v>9.6970000000000008E-3</v>
-      </c>
-      <c r="G21" s="2">
-        <v>8.2109999999999995E-3</v>
-      </c>
-      <c r="H21" s="2">
-        <v>7.2989999999999999E-3</v>
-      </c>
-      <c r="I21" s="2">
-        <v>7.2249999999999997E-3</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" ref="K21:K23" si="3">AVERAGE(E21:I21)</f>
-        <v>8.1426000000000016E-3</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" ref="L21:L23" si="4">MIN(E21:I21)</f>
-        <v>7.2249999999999997E-3</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" ref="N21:N23" si="5">L9/L21</f>
-        <v>1.0941176470588236</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.25273200000000001</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.24804999999999999</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.27013199999999998</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0.25151499999999999</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0.26360899999999998</v>
-      </c>
-      <c r="K22" s="2">
-        <f>AVERAGE(E22:I22)</f>
-        <v>0.25720759999999998</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="4"/>
-        <v>0.24804999999999999</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="5"/>
-        <v>3.3630114896190286</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1.1210830000000001</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1.1004813</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1.1279140000000001</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1.1460170000000001</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1.0962909999999999</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="3"/>
-        <v>1.11835726</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0962909999999999</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="5"/>
-        <v>3.1895755780171511</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2</v>
-      </c>
-      <c r="G31" s="2">
-        <v>3</v>
-      </c>
-      <c r="H31" s="2">
-        <v>4</v>
-      </c>
-      <c r="I31" s="2">
-        <v>5</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="2">
-        <v>8.4790000000000004E-3</v>
-      </c>
-      <c r="F34" s="2">
-        <v>9.8740000000000008E-3</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1.0241E-2</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1.0351000000000001E-2</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1.3764999999999999E-2</v>
-      </c>
-      <c r="K34" s="2">
-        <f>AVERAGE(E34:I34)</f>
-        <v>1.0541999999999999E-2</v>
-      </c>
-      <c r="L34" s="2">
-        <f>MIN(E34:I34)</f>
-        <v>8.4790000000000004E-3</v>
-      </c>
-      <c r="O34" s="2">
-        <v>3.7169999999999998E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1.4969E-2</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1.5370999999999999E-2</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1.686E-2</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1.7174999999999999E-2</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1.8141000000000001E-2</v>
-      </c>
-      <c r="K35" s="2">
-        <f>AVERAGE(E35:I35)</f>
-        <v>1.6503200000000003E-2</v>
-      </c>
-      <c r="L35" s="2">
-        <f>MIN(E35:I35)</f>
-        <v>1.4969E-2</v>
-      </c>
-      <c r="O35" s="2">
-        <v>7.2249999999999997E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.232264</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.22955800000000001</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0.22243099999999999</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0.24835299999999999</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0.26863300000000001</v>
-      </c>
-      <c r="K36" s="2">
-        <f>AVERAGE(E36:I36)</f>
-        <v>0.24024780000000004</v>
-      </c>
-      <c r="L36" s="2">
-        <f>MIN(E36:I36)</f>
-        <v>0.22243099999999999</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0.24804999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0.83651200000000003</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.86646199999999995</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0.75531700000000002</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0.95313599999999998</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0.87135099999999999</v>
-      </c>
-      <c r="K37" s="2">
-        <f>AVERAGE(E37:I37)</f>
-        <v>0.85655559999999986</v>
-      </c>
-      <c r="L37" s="2">
-        <f>MIN(E37:I37)</f>
-        <v>0.75531700000000002</v>
-      </c>
-      <c r="O37" s="2">
-        <v>1.0962909999999999</v>
+      <c r="D7" s="2">
+        <v>0.31110599999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.31103700000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.31102099999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.31151000000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.31006099999999998</v>
+      </c>
+      <c r="J7" s="2">
+        <f>AVERAGE(D7:H7)</f>
+        <v>0.31094699999999997</v>
+      </c>
+      <c r="K7" s="2">
+        <f>MIN(D7:H7)</f>
+        <v>0.31006099999999998</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>